--- a/Template.xlsx
+++ b/Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostEffects</t>
   </si>
 </sst>
 </file>
@@ -127,8 +130,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,35 +395,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.55"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
